--- a/biology/Botanique/Androlepis_skinneri/Androlepis_skinneri.xlsx
+++ b/biology/Botanique/Androlepis_skinneri/Androlepis_skinneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Androlepis skinneri est une espèce de plante de la famille des Bromeliaceae, originaire du Costa Rica, du Honduras et du Guatemala.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante épiphyte (habitudes terrestres), pouvant atteindre 1 à 2 m de haut quand elle est fertile, l'espèce étant fonctionnellement dioïque. Les feuilles font de 80 à 140 cm de long avec des gaines de 7-15 cm de large; les lames ligulées, 6 à 9 cm de large, aigües, piquantes, densément dentées, glabres, Les tiges florales sont dressées, de 75 à 90 cm de long, blanches, à bractées dressées, plus longues que les entre-nœuds, dentelées, avec souvent de la pourriture dans les fructifications. Le fruit est une baie de 1 à 1,5 cm de diamètre, les graines sont sans appendices.
 </t>
